--- a/com.sevenrmartsupermarket/src/main/resources/ExcelFiles/LoginData.xlsx
+++ b/com.sevenrmartsupermarket/src/main/resources/ExcelFiles/LoginData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chith\eclipse-workspace\com.sevenrmartsupermarket\src\main\resources\ExcelFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chith\git\repository3\com.sevenrmartsupermarket\src\main\resources\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35DB4437-7357-45F4-B51D-EDFFF49FBF59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F941A98F-F6CB-4918-B941-D7A8F5D85AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3984" yWindow="3120" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4788" yWindow="2016" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>UserName</t>
   </si>
@@ -33,13 +33,31 @@
     <t>Password</t>
   </si>
   <si>
-    <t>abcd56751</t>
-  </si>
-  <si>
-    <t>qwerty24</t>
-  </si>
-  <si>
-    <t>abcd565627</t>
+    <t>profileName</t>
+  </si>
+  <si>
+    <t>gopi</t>
+  </si>
+  <si>
+    <t>Brent</t>
+  </si>
+  <si>
+    <t>suresh</t>
+  </si>
+  <si>
+    <t>hema</t>
+  </si>
+  <si>
+    <t>qwe</t>
+  </si>
+  <si>
+    <t>Herta2023</t>
+  </si>
+  <si>
+    <t>Durgan123</t>
+  </si>
+  <si>
+    <t>Vern</t>
   </si>
 </sst>
 </file>
@@ -56,9 +74,9 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF212529"/>
-      <name val="Source Sans Pro"/>
-      <family val="2"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -364,40 +382,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.109375" customWidth="1"/>
     <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/com.sevenrmartsupermarket/src/main/resources/ExcelFiles/LoginData.xlsx
+++ b/com.sevenrmartsupermarket/src/main/resources/ExcelFiles/LoginData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chith\git\repository3\com.sevenrmartsupermarket\src\main\resources\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F941A98F-F6CB-4918-B941-D7A8F5D85AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19EE49B9-6039-4595-966C-7D8B1CFB09B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4788" yWindow="2016" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -25,46 +25,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
-  <si>
-    <t>UserName</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>profileName</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
   <si>
     <t>gopi</t>
   </si>
   <si>
-    <t>Brent</t>
-  </si>
-  <si>
     <t>suresh</t>
   </si>
   <si>
-    <t>hema</t>
-  </si>
-  <si>
-    <t>qwe</t>
-  </si>
-  <si>
-    <t>Herta2023</t>
-  </si>
-  <si>
-    <t>Durgan123</t>
-  </si>
-  <si>
-    <t>Vern</t>
+    <t>Sheila2023</t>
+  </si>
+  <si>
+    <t>Runolfsson123</t>
+  </si>
+  <si>
+    <t>Gopi</t>
+  </si>
+  <si>
+    <t>Suresh</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,16 +63,28 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF212529"/>
+      <name val="Source Sans Pro"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -95,13 +92,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDEE2E6"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDEE2E6"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDEE2E6"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDEE2E6"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -385,7 +401,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -397,47 +413,40 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
+    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="1"/>
+      <c r="C4" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
